--- a/version_python/test/base_de_datos_Contratacion.xlsx
+++ b/version_python/test/base_de_datos_Contratacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis Documentos\trabajos\contratacion\robots\RPA-TagUI-SECOPII\version_python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F35A28-C2DA-4254-A151-F17D2F42C8C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1A344-8E6F-4D2F-B4F9-F9CDF288DFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>DOCUMENTO DE IDENTIFICACION</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>PEDRO PEREZ</t>
+  </si>
+  <si>
+    <t>TIPO_MODIFICACION</t>
+  </si>
+  <si>
+    <t>ADICION - PRORROGA</t>
   </si>
 </sst>
 </file>
@@ -343,7 +349,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,6 +390,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Comma [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -811,7 +818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR5"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AR2" sqref="AR2"/>
@@ -860,35 +867,36 @@
     <col min="41" max="41" width="18.42578125" customWidth="1"/>
     <col min="42" max="42" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="29" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.140625" customWidth="1"/>
+    <col min="45" max="45" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="29" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="29" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1018,11 +1026,14 @@
       <c r="AQ1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AR1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS1" s="16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>2045</v>
       </c>
@@ -1140,11 +1151,14 @@
       <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="S5"/>
     </row>
   </sheetData>

--- a/version_python/test/base_de_datos_Contratacion.xlsx
+++ b/version_python/test/base_de_datos_Contratacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis Documentos\trabajos\contratacion\robots\RPA-TagUI-SECOPII\version_python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1A344-8E6F-4D2F-B4F9-F9CDF288DFA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BCD51-3A65-4AC2-A513-D4B1F1D1C6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,13 +820,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -1034,7 +1034,7 @@
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="A2" s="18">
         <v>2045</v>
       </c>
       <c r="B2">
@@ -1169,6 +1169,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/version_python/test/base_de_datos_Contratacion.xlsx
+++ b/version_python/test/base_de_datos_Contratacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mis Documentos\trabajos\contratacion\robots\RPA-TagUI-SECOPII\version_python\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8BCD51-3A65-4AC2-A513-D4B1F1D1C6E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFA5850-8E86-4035-B5B1-129C13E01956}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="73">
   <si>
     <t>DOCUMENTO DE IDENTIFICACION</t>
   </si>
@@ -108,9 +108,6 @@
     <t>17 de diciembre de 2024</t>
   </si>
   <si>
-    <t>Contratacion Servicios Asistenciales Generales</t>
-  </si>
-  <si>
     <t>DIECINUEVE (19) DIAS</t>
   </si>
   <si>
@@ -210,19 +207,46 @@
     <t>NOMBRE_DOCUMENTO</t>
   </si>
   <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>ADICION - PRORROGA</t>
+  </si>
+  <si>
+    <t>TIPO_MODIFICACION</t>
+  </si>
+  <si>
+    <t>CPS ASISTENCIALES GENERALES</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>SOLICITUD_DE_GARANTIAS</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
     <t>OTROSI_1_AD_CPS_2045_2025</t>
   </si>
   <si>
-    <t>509</t>
+    <t>NOMBRE_DOCUMENTO_ANEXO</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>15004</t>
   </si>
   <si>
     <t>PEDRO PEREZ</t>
-  </si>
-  <si>
-    <t>TIPO_MODIFICACION</t>
-  </si>
-  <si>
-    <t>ADICION - PRORROGA</t>
   </si>
 </sst>
 </file>
@@ -271,7 +295,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +318,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
         <bgColor rgb="FF0066CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -349,7 +367,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -374,23 +392,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Excel Built-in Comma [0]" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -818,15 +840,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" bestFit="1" customWidth="1"/>
@@ -867,44 +889,45 @@
     <col min="41" max="41" width="18.42578125" customWidth="1"/>
     <col min="42" max="42" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.140625" customWidth="1"/>
+    <col min="44" max="44" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="29" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.85546875" customWidth="1"/>
+    <col min="47" max="47" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="29" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -934,10 +957,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>9</v>
@@ -964,10 +987,10 @@
         <v>16</v>
       </c>
       <c r="W1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>17</v>
@@ -976,10 +999,10 @@
         <v>18</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>19</v>
@@ -994,31 +1017,31 @@
         <v>22</v>
       </c>
       <c r="AG1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AH1" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="AI1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="AP1" s="8" t="s">
         <v>23</v>
@@ -1027,54 +1050,60 @@
         <v>24</v>
       </c>
       <c r="AR1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AS1" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU1" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>2045</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="13">
         <v>2025</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="20">
         <v>79123456</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+      <c r="E2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="H2" s="13">
+        <v>350</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="13">
         <v>32273269</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="K2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="O2">
         <v>2102494</v>
@@ -1088,62 +1117,62 @@
       <c r="R2">
         <v>19</v>
       </c>
-      <c r="S2" s="10">
-        <v>45653</v>
-      </c>
-      <c r="T2" s="10">
-        <v>45306</v>
+      <c r="S2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
         <v>56</v>
       </c>
-      <c r="X2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>45306</v>
-      </c>
-      <c r="Z2" s="17">
+      <c r="Y2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="15">
         <v>6669054</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AG2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI2" s="15">
+        <v>105858</v>
+      </c>
+      <c r="AJ2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AG2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>105858</v>
-      </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AK2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AK2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO2" s="11" t="s">
-        <v>46</v>
+      <c r="AN2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -1151,15 +1180,21 @@
       <c r="AQ2">
         <v>1</v>
       </c>
-      <c r="AR2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AS2" s="17" t="s">
-        <v>60</v>
+      <c r="AR2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="S5"/>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="S3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1">
